--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn1-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H2">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I2">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J2">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.995795333333333</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N2">
-        <v>5.987386</v>
+        <v>2.158783</v>
       </c>
       <c r="O2">
-        <v>0.03246541069287895</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P2">
-        <v>0.0423018942495388</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q2">
-        <v>27.29447702071333</v>
+        <v>9.615103147582776</v>
       </c>
       <c r="R2">
-        <v>245.65029318642</v>
+        <v>86.53592832824499</v>
       </c>
       <c r="S2">
-        <v>0.02987716535966983</v>
+        <v>0.02813229941238286</v>
       </c>
       <c r="T2">
-        <v>0.03937076780702577</v>
+        <v>0.03098311934428273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H3">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I3">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J3">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.53477466666667</v>
       </c>
       <c r="N3">
-        <v>49.604324</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O3">
-        <v>0.2689695888660982</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P3">
-        <v>0.3504629346041594</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q3">
-        <v>226.1294129935866</v>
+        <v>220.9349859740956</v>
       </c>
       <c r="R3">
-        <v>2035.16471694228</v>
+        <v>1988.41487376686</v>
       </c>
       <c r="S3">
-        <v>0.2475264816236399</v>
+        <v>0.6464214767843035</v>
       </c>
       <c r="T3">
-        <v>0.3261791243171019</v>
+        <v>0.7119273639288751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H4">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I4">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J4">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05109933333333333</v>
+        <v>5.116736</v>
       </c>
       <c r="N4">
-        <v>0.153298</v>
+        <v>10.233472</v>
       </c>
       <c r="O4">
-        <v>0.0008312279396045214</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P4">
-        <v>0.001083076284820421</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q4">
-        <v>0.6988339716733333</v>
+        <v>68.36899922634666</v>
       </c>
       <c r="R4">
-        <v>6.289505745059999</v>
+        <v>410.21399535808</v>
       </c>
       <c r="S4">
-        <v>0.0007649598164051333</v>
+        <v>0.2000370799188036</v>
       </c>
       <c r="T4">
-        <v>0.001008029207283685</v>
+        <v>0.1468720497995286</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,60 +726,60 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H5">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I5">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J5">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>42.884111</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N5">
-        <v>85.76822200000001</v>
+        <v>0.248047</v>
       </c>
       <c r="O5">
-        <v>0.697591708208227</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P5">
-        <v>0.6059669874324066</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q5">
-        <v>586.48267319489</v>
+        <v>1.104787971022778</v>
       </c>
       <c r="R5">
-        <v>3518.89603916934</v>
+        <v>9.943091739205</v>
       </c>
       <c r="S5">
-        <v>0.641977488498037</v>
+        <v>0.003232438124787592</v>
       </c>
       <c r="T5">
-        <v>0.5639791310570988</v>
+        <v>0.003560001076528443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.67599</v>
+        <v>0.528683</v>
       </c>
       <c r="H6">
-        <v>41.02797</v>
+        <v>1.586049</v>
       </c>
       <c r="I6">
-        <v>0.9202768337756827</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J6">
-        <v>0.9307093336004689</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.008733333333333334</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N6">
-        <v>0.0262</v>
+        <v>2.158783</v>
       </c>
       <c r="O6">
-        <v>0.0001420642931912906</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P6">
-        <v>0.0001851074290747108</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q6">
-        <v>0.1194369793333333</v>
+        <v>0.3804372909296666</v>
       </c>
       <c r="R6">
-        <v>1.074932814</v>
+        <v>3.423935618367</v>
       </c>
       <c r="S6">
-        <v>0.0001307384779306612</v>
+        <v>0.001113100464113045</v>
       </c>
       <c r="T6">
-        <v>0.0001722812119586202</v>
+        <v>0.001225897820020032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.586049</v>
       </c>
       <c r="I7">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J7">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.995795333333333</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N7">
-        <v>5.987386</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O7">
-        <v>0.03246541069287895</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P7">
-        <v>0.0423018942495388</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q7">
-        <v>1.055143064212667</v>
+        <v>8.741654275097334</v>
       </c>
       <c r="R7">
-        <v>9.496287577914</v>
+        <v>78.67488847587602</v>
       </c>
       <c r="S7">
-        <v>0.001154983983890477</v>
+        <v>0.02557672358287695</v>
       </c>
       <c r="T7">
-        <v>0.001521985292218099</v>
+        <v>0.02816857120663234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>1.586049</v>
       </c>
       <c r="I8">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J8">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.53477466666667</v>
+        <v>5.116736</v>
       </c>
       <c r="N8">
-        <v>49.604324</v>
+        <v>10.233472</v>
       </c>
       <c r="O8">
-        <v>0.2689695888660982</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P8">
-        <v>0.3504629346041594</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q8">
-        <v>8.741654275097334</v>
+        <v>2.705131338688</v>
       </c>
       <c r="R8">
-        <v>78.674888475876</v>
+        <v>16.230788032128</v>
       </c>
       <c r="S8">
-        <v>0.009568816801140603</v>
+        <v>0.007914794423076231</v>
       </c>
       <c r="T8">
-        <v>0.01260935098529162</v>
+        <v>0.005811233003055905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>1.586049</v>
       </c>
       <c r="I9">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J9">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.05109933333333333</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N9">
-        <v>0.153298</v>
+        <v>0.248047</v>
       </c>
       <c r="O9">
-        <v>0.0008312279396045214</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P9">
-        <v>0.001083076284820421</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q9">
-        <v>0.02701534884466666</v>
+        <v>0.04371274403366667</v>
       </c>
       <c r="R9">
-        <v>0.243138139602</v>
+        <v>0.393414696303</v>
       </c>
       <c r="S9">
-        <v>2.957162520713419E-05</v>
+        <v>0.0001278967042180008</v>
       </c>
       <c r="T9">
-        <v>3.896814090931338E-05</v>
+        <v>0.0001408572684528778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,117 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.528683</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H10">
-        <v>1.586049</v>
+        <v>1.138975</v>
       </c>
       <c r="I10">
-        <v>0.03557583160787843</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J10">
-        <v>0.03597912857613209</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>42.884111</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N10">
-        <v>85.76822200000001</v>
+        <v>2.158783</v>
       </c>
       <c r="O10">
-        <v>0.697591708208227</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P10">
-        <v>0.6059669874324066</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q10">
-        <v>22.672100455813</v>
+        <v>0.2731999852694443</v>
       </c>
       <c r="R10">
-        <v>136.032602734878</v>
+        <v>2.458799867424999</v>
       </c>
       <c r="S10">
-        <v>0.02481740514226815</v>
+        <v>0.0007993407524692837</v>
       </c>
       <c r="T10">
-        <v>0.02180216415372198</v>
+        <v>0.0008803428958104798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3796583333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.138975</v>
+      </c>
+      <c r="I11">
+        <v>0.02494214647254301</v>
+      </c>
+      <c r="J11">
+        <v>0.02538310441646071</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.528683</v>
-      </c>
-      <c r="H11">
-        <v>1.586049</v>
-      </c>
-      <c r="I11">
-        <v>0.03557583160787843</v>
-      </c>
-      <c r="J11">
-        <v>0.03597912857613209</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.008733333333333334</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N11">
-        <v>0.0262</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O11">
-        <v>0.0001420642931912906</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P11">
-        <v>0.0001851074290747108</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q11">
-        <v>0.004617164866666667</v>
+        <v>6.277564991988888</v>
       </c>
       <c r="R11">
-        <v>0.0415544838</v>
+        <v>56.4980849279</v>
       </c>
       <c r="S11">
-        <v>5.054055372065625E-06</v>
+        <v>0.01836718080135435</v>
       </c>
       <c r="T11">
-        <v>6.660003991076274E-06</v>
+        <v>0.02022844085527878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H12">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I12">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J12">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.995795333333333</v>
+        <v>5.116736</v>
       </c>
       <c r="N12">
-        <v>5.987386</v>
+        <v>10.233472</v>
       </c>
       <c r="O12">
-        <v>0.03246541069287895</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P12">
-        <v>0.0423018942495388</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q12">
-        <v>0.2529397826304445</v>
+        <v>1.942611461866666</v>
       </c>
       <c r="R12">
-        <v>2.276458043674</v>
+        <v>11.6556687712</v>
       </c>
       <c r="S12">
-        <v>0.000276873731852556</v>
+        <v>0.005683779617163939</v>
       </c>
       <c r="T12">
-        <v>0.0003648515940988906</v>
+        <v>0.004173168111234646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,51 +1222,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H13">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I13">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J13">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>16.53477466666667</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N13">
-        <v>49.604324</v>
+        <v>0.248047</v>
       </c>
       <c r="O13">
-        <v>0.2689695888660982</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P13">
-        <v>0.3504629346041594</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q13">
-        <v>2.095556713746222</v>
+        <v>0.03139103686944444</v>
       </c>
       <c r="R13">
-        <v>18.860010423716</v>
+        <v>0.282519331825</v>
       </c>
       <c r="S13">
-        <v>0.002293844810056226</v>
+        <v>9.184530155543584E-05</v>
       </c>
       <c r="T13">
-        <v>0.003022724221487951</v>
+        <v>0.0001011525541367994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7932915</v>
+      </c>
+      <c r="H14">
+        <v>1.586583</v>
+      </c>
+      <c r="I14">
+        <v>0.05211631367261799</v>
+      </c>
+      <c r="J14">
+        <v>0.03535845997882436</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.1267363333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.380209</v>
-      </c>
-      <c r="I14">
-        <v>0.008528268269013033</v>
-      </c>
-      <c r="J14">
-        <v>0.008624946957378119</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M14">
-        <v>0.05109933333333333</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N14">
-        <v>0.153298</v>
+        <v>2.158783</v>
       </c>
       <c r="O14">
-        <v>0.0008312279396045214</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P14">
-        <v>0.001083076284820421</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q14">
-        <v>0.006476142142444444</v>
+        <v>0.5708480680814999</v>
       </c>
       <c r="R14">
-        <v>0.058285279282</v>
+        <v>3.425088408489</v>
       </c>
       <c r="S14">
-        <v>7.088934861646321E-06</v>
+        <v>0.001670212843664225</v>
       </c>
       <c r="T14">
-        <v>9.341475507370284E-06</v>
+        <v>0.001226310562271936</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1267363333333333</v>
+        <v>0.7932915</v>
       </c>
       <c r="H15">
-        <v>0.380209</v>
+        <v>1.586583</v>
       </c>
       <c r="I15">
-        <v>0.008528268269013033</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J15">
-        <v>0.008624946957378119</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.884111</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N15">
-        <v>85.76822200000001</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O15">
-        <v>0.697591708208227</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P15">
-        <v>0.6059669874324066</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q15">
-        <v>5.434974986399667</v>
+        <v>13.116896197482</v>
       </c>
       <c r="R15">
-        <v>32.60984991839801</v>
+        <v>78.70137718489201</v>
       </c>
       <c r="S15">
-        <v>0.005949249229838821</v>
+        <v>0.03837800234950969</v>
       </c>
       <c r="T15">
-        <v>0.00522643312452672</v>
+        <v>0.02817805516143092</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1267363333333333</v>
+        <v>0.7932915</v>
       </c>
       <c r="H16">
-        <v>0.380209</v>
+        <v>1.586583</v>
       </c>
       <c r="I16">
-        <v>0.008528268269013033</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J16">
-        <v>0.008624946957378119</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.008733333333333334</v>
+        <v>5.116736</v>
       </c>
       <c r="N16">
-        <v>0.0262</v>
+        <v>10.233472</v>
       </c>
       <c r="O16">
-        <v>0.0001420642931912906</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P16">
-        <v>0.0001851074290747108</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q16">
-        <v>0.001106830644444445</v>
+        <v>4.059063176544</v>
       </c>
       <c r="R16">
-        <v>0.009961475800000001</v>
+        <v>16.236252706176</v>
       </c>
       <c r="S16">
-        <v>1.211562403783048E-06</v>
+        <v>0.01187618883163214</v>
       </c>
       <c r="T16">
-        <v>1.596541757186013E-06</v>
+        <v>0.005813189562042186</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H17">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I17">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J17">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.995795333333333</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N17">
-        <v>5.987386</v>
+        <v>0.248047</v>
       </c>
       <c r="O17">
-        <v>0.03246541069287895</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P17">
-        <v>0.0423018942495388</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q17">
-        <v>0.9973597998243333</v>
+        <v>0.06559119223350002</v>
       </c>
       <c r="R17">
-        <v>5.984158798946</v>
+        <v>0.393547153401</v>
       </c>
       <c r="S17">
-        <v>0.001091733087240521</v>
+        <v>0.0001919096478119293</v>
       </c>
       <c r="T17">
-        <v>0.0009590907608438287</v>
+        <v>0.0001409046930793262</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.4997305</v>
+        <v>0.158087</v>
       </c>
       <c r="H18">
-        <v>0.9994609999999999</v>
+        <v>0.474261</v>
       </c>
       <c r="I18">
-        <v>0.03362757667131512</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J18">
-        <v>0.02267252514003638</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>16.53477466666667</v>
+        <v>0.7195943333333332</v>
       </c>
       <c r="N18">
-        <v>49.604324</v>
+        <v>2.158783</v>
       </c>
       <c r="O18">
-        <v>0.2689695888660982</v>
+        <v>0.03204779321415739</v>
       </c>
       <c r="P18">
-        <v>0.3504629346041594</v>
+        <v>0.03468223907394029</v>
       </c>
       <c r="Q18">
-        <v>8.262931211560666</v>
+        <v>0.1137585093736666</v>
       </c>
       <c r="R18">
-        <v>49.577587269364</v>
+        <v>1.023826584363</v>
       </c>
       <c r="S18">
-        <v>0.009044795471846822</v>
+        <v>0.0003328397415279835</v>
       </c>
       <c r="T18">
-        <v>0.007945879695463729</v>
+        <v>0.0003665684515551035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.4997305</v>
+        <v>0.158087</v>
       </c>
       <c r="H19">
-        <v>0.9994609999999999</v>
+        <v>0.474261</v>
       </c>
       <c r="I19">
-        <v>0.03362757667131512</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J19">
-        <v>0.02267252514003638</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.05109933333333333</v>
+        <v>16.53477466666667</v>
       </c>
       <c r="N19">
-        <v>0.153298</v>
+        <v>49.60432400000001</v>
       </c>
       <c r="O19">
-        <v>0.0008312279396045214</v>
+        <v>0.7363913455312854</v>
       </c>
       <c r="P19">
-        <v>0.001083076284820421</v>
+        <v>0.7969254084681946</v>
       </c>
       <c r="Q19">
-        <v>0.02553589539633333</v>
+        <v>2.613932922729334</v>
       </c>
       <c r="R19">
-        <v>0.153215372378</v>
+        <v>23.525396304564</v>
       </c>
       <c r="S19">
-        <v>2.795218127039034E-05</v>
+        <v>0.007647962013240956</v>
       </c>
       <c r="T19">
-        <v>2.455607429616819E-05</v>
+        <v>0.008422977315977411</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.4997305</v>
+        <v>0.158087</v>
       </c>
       <c r="H20">
-        <v>0.9994609999999999</v>
+        <v>0.474261</v>
       </c>
       <c r="I20">
-        <v>0.03362757667131512</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J20">
-        <v>0.02267252514003638</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>42.884111</v>
+        <v>5.116736</v>
       </c>
       <c r="N20">
-        <v>85.76822200000001</v>
+        <v>10.233472</v>
       </c>
       <c r="O20">
-        <v>0.697591708208227</v>
+        <v>0.2278785277530463</v>
       </c>
       <c r="P20">
-        <v>0.6059669874324066</v>
+        <v>0.1644073176694804</v>
       </c>
       <c r="Q20">
-        <v>21.4304982320855</v>
+        <v>0.8088894440319999</v>
       </c>
       <c r="R20">
-        <v>85.721992928342</v>
+        <v>4.853336664192</v>
       </c>
       <c r="S20">
-        <v>0.02345831865304584</v>
+        <v>0.002366684962370365</v>
       </c>
       <c r="T20">
-        <v>0.01373880175659335</v>
+        <v>0.001737677193619047</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,362 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.4997305</v>
+        <v>0.158087</v>
       </c>
       <c r="H21">
-        <v>0.9994609999999999</v>
+        <v>0.474261</v>
       </c>
       <c r="I21">
-        <v>0.03362757667131512</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J21">
-        <v>0.02267252514003638</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.008733333333333334</v>
+        <v>0.08268233333333334</v>
       </c>
       <c r="N21">
-        <v>0.0262</v>
+        <v>0.248047</v>
       </c>
       <c r="O21">
-        <v>0.0001420642931912906</v>
+        <v>0.003682333501510851</v>
       </c>
       <c r="P21">
-        <v>0.0001851074290747108</v>
+        <v>0.003985034788384784</v>
       </c>
       <c r="Q21">
-        <v>0.004364313033333333</v>
+        <v>0.01307100202966667</v>
       </c>
       <c r="R21">
-        <v>0.0261858782</v>
+        <v>0.117639018267</v>
       </c>
       <c r="S21">
-        <v>4.777277911546315E-06</v>
+        <v>3.824372313789378E-05</v>
       </c>
       <c r="T21">
-        <v>4.196852839303883E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.029595</v>
-      </c>
-      <c r="H22">
-        <v>0.088785</v>
-      </c>
-      <c r="I22">
-        <v>0.001991489676110565</v>
-      </c>
-      <c r="J22">
-        <v>0.002014065725984436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1.995795333333333</v>
-      </c>
-      <c r="N22">
-        <v>5.987386</v>
-      </c>
-      <c r="O22">
-        <v>0.03246541069287895</v>
-      </c>
-      <c r="P22">
-        <v>0.0423018942495388</v>
-      </c>
-      <c r="Q22">
-        <v>0.05906556289</v>
-      </c>
-      <c r="R22">
-        <v>0.53159006601</v>
-      </c>
-      <c r="S22">
-        <v>6.465453022555798E-05</v>
-      </c>
-      <c r="T22">
-        <v>8.519879535221418E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.029595</v>
-      </c>
-      <c r="H23">
-        <v>0.088785</v>
-      </c>
-      <c r="I23">
-        <v>0.001991489676110565</v>
-      </c>
-      <c r="J23">
-        <v>0.002014065725984436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>16.53477466666667</v>
-      </c>
-      <c r="N23">
-        <v>49.604324</v>
-      </c>
-      <c r="O23">
-        <v>0.2689695888660982</v>
-      </c>
-      <c r="P23">
-        <v>0.3504629346041594</v>
-      </c>
-      <c r="Q23">
-        <v>0.48934665626</v>
-      </c>
-      <c r="R23">
-        <v>4.40411990634</v>
-      </c>
-      <c r="S23">
-        <v>0.0005356501594145378</v>
-      </c>
-      <c r="T23">
-        <v>0.000705855384814162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.029595</v>
-      </c>
-      <c r="H24">
-        <v>0.088785</v>
-      </c>
-      <c r="I24">
-        <v>0.001991489676110565</v>
-      </c>
-      <c r="J24">
-        <v>0.002014065725984436</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.05109933333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.153298</v>
-      </c>
-      <c r="O24">
-        <v>0.0008312279396045214</v>
-      </c>
-      <c r="P24">
-        <v>0.001083076284820421</v>
-      </c>
-      <c r="Q24">
-        <v>0.00151228477</v>
-      </c>
-      <c r="R24">
-        <v>0.01361056293</v>
-      </c>
-      <c r="S24">
-        <v>1.655381860217061E-06</v>
-      </c>
-      <c r="T24">
-        <v>2.181386823883366E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.029595</v>
-      </c>
-      <c r="H25">
-        <v>0.088785</v>
-      </c>
-      <c r="I25">
-        <v>0.001991489676110565</v>
-      </c>
-      <c r="J25">
-        <v>0.002014065725984436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>42.884111</v>
-      </c>
-      <c r="N25">
-        <v>85.76822200000001</v>
-      </c>
-      <c r="O25">
-        <v>0.697591708208227</v>
-      </c>
-      <c r="P25">
-        <v>0.6059669874324066</v>
-      </c>
-      <c r="Q25">
-        <v>1.269155265045</v>
-      </c>
-      <c r="R25">
-        <v>7.614931590270001</v>
-      </c>
-      <c r="S25">
-        <v>0.001389246685037018</v>
-      </c>
-      <c r="T25">
-        <v>0.001220457340465651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.029595</v>
-      </c>
-      <c r="H26">
-        <v>0.088785</v>
-      </c>
-      <c r="I26">
-        <v>0.001991489676110565</v>
-      </c>
-      <c r="J26">
-        <v>0.002014065725984436</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.008733333333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.0262</v>
-      </c>
-      <c r="O26">
-        <v>0.0001420642931912906</v>
-      </c>
-      <c r="P26">
-        <v>0.0001851074290747108</v>
-      </c>
-      <c r="Q26">
-        <v>0.000258463</v>
-      </c>
-      <c r="R26">
-        <v>0.002326167</v>
-      </c>
-      <c r="S26">
-        <v>2.829195732343997E-07</v>
-      </c>
-      <c r="T26">
-        <v>3.728185285244699E-07</v>
+        <v>4.211919618733739E-05</v>
       </c>
     </row>
   </sheetData>
